--- a/static/etfs/^HSI_monthly_returns.xlsx
+++ b/static/etfs/^HSI_monthly_returns.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TerryLaw\Documents\GitHub\ixx-invincible\app.invincibleportfolio.com\static\etfs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E37AC218-98F5-4225-8CD0-28CA7DD89112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A5F1A5-6885-4E46-AC61-8C20AE599052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="^HSI_monthly_returns" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -70,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
@@ -594,7 +607,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -604,6 +617,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - 輔色1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -990,11 +1006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1888,21 +1904,43 @@
         <v>2024</v>
       </c>
       <c r="B21" s="2">
-        <v>-8.3217464549651607E-2</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+        <v>-9.1645715574139294E-2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6.6281206343408394E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.81573925369216E-3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7.3851542417135305E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.7822414906487598E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>-1.9967245558921199E-2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-1.5739322446121699E-2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
       <c r="N21" s="3">
-        <v>-8.3217464549651607E-2</v>
+        <v>2.3014656751903999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1911,62 +1949,94 @@
       </c>
       <c r="B22" s="4">
         <f>AVERAGE(B2:B21)</f>
-        <v>1.0849382977164903E-3</v>
+        <v>6.6352574649210586E-4</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:N22" si="0">AVERAGE(C2:C21)</f>
-        <v>-2.4010375710209263E-3</v>
+        <v>1.0330746247005397E-3</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>-7.6268410072638073E-3</v>
+        <v>-7.1547119942160092E-3</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>3.3045416477099777E-2</v>
+        <v>3.508572277410156E-2</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>-1.5164859950028987E-2</v>
+        <v>-1.3515496207203156E-2</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="0"/>
-        <v>2.1771761532298197E-3</v>
+        <v>1.0699550676222689E-3</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="0"/>
-        <v>2.0598721107304169E-2</v>
+        <v>1.8781818929632876E-2</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="0"/>
-        <v>-2.0858307166191258E-2</v>
+        <v>-1.9815391807881694E-2</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="0"/>
-        <v>-1.2402143697047114E-2</v>
+        <v>-1.1782036512194758E-2</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="0"/>
-        <v>5.6486757701176091E-3</v>
+        <v>5.3662419816117284E-3</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="0"/>
-        <v>1.3200113147370924E-2</v>
+        <v>1.2540107490002377E-2</v>
       </c>
       <c r="M22" s="4">
         <f t="shared" si="0"/>
-        <v>1.0475121444993116E-2</v>
+        <v>9.9513653727434596E-3</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" si="0"/>
-        <v>3.1876903986907359E-2</v>
+        <v>3.7188510051985139E-2</v>
       </c>
       <c r="P22" s="6">
         <f>COUNTIF(B2:M21, "&gt;0")/COUNT(B2:M21)</f>
-        <v>0.55021834061135366</v>
-      </c>
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <f>SUM(B2:D21)</f>
+        <v>-0.10916223246046719</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <f>SUM(E2:G21)</f>
+        <v>0.45280363269041346</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7">
+        <f>SUM(H2:J21)</f>
+        <v>-0.25631218780887144</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7">
+        <f>SUM(K2:M21)</f>
+        <v>0.55715429688715146</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B24:D24"/>
+  </mergeCells>
   <conditionalFormatting sqref="B2:N21">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
